--- a/GATEWAY/A1#111#PROBUSSRLX2/Hippocrates/V.2.41/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111#PROBUSSRLX2/Hippocrates/V.2.41/accreditamento-checklist_V8.2.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\Probus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C037ED-F23B-4E8B-9D3B-545888766410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398DD267-272F-4389-B86F-8B9605BACAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="452">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1733,6 +1733,18 @@
   </si>
   <si>
     <t>L’errore viene segnalato a video all’utente finale, che procederà all'inserimento del dato mancante</t>
+  </si>
+  <si>
+    <t>2025-07-03T14:11:14Z</t>
+  </si>
+  <si>
+    <t>eefeb8a54536205ba42992f9d728d9f4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.dc6b5deae0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore semantico "[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']"</t>
   </si>
 </sst>
 </file>
@@ -3823,10 +3835,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A133" sqref="A133:XFD133"/>
+      <selection pane="bottomRight" activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8738,20 +8750,44 @@
       <c r="E133" s="43" t="s">
         <v>345</v>
       </c>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="37"/>
-      <c r="I133" s="42"/>
-      <c r="J133" s="38"/>
+      <c r="F133" s="37">
+        <v>45841</v>
+      </c>
+      <c r="G133" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="H133" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="I133" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="J133" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K133" s="38"/>
       <c r="L133" s="38"/>
-      <c r="M133" s="38"/>
-      <c r="N133" s="38"/>
-      <c r="O133" s="38"/>
-      <c r="P133" s="38"/>
-      <c r="Q133" s="38"/>
-      <c r="R133" s="38"/>
-      <c r="S133" s="38"/>
+      <c r="M133" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N133" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O133" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="P133" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q133" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R133" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S133" s="45" t="s">
+        <v>447</v>
+      </c>
       <c r="T133" s="38"/>
       <c r="U133" s="39"/>
       <c r="V133" s="40"/>
@@ -14986,7 +15022,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P10:R192 J10:J192 M10:N192</xm:sqref>
+          <xm:sqref>M10:N192 J10:J192 P10:R192</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
@@ -17249,6 +17285,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17506,28 +17563,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17546,31 +17607,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#PROBUSSRLX2/Hippocrates/V.2.41/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111#PROBUSSRLX2/Hippocrates/V.2.41/accreditamento-checklist_V8.2.6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\Probus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\Probus\accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398DD267-272F-4389-B86F-8B9605BACAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D97F05-245F-44C6-A29E-3EACBE28F36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="461">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1714,37 +1714,65 @@
     <t>L’errore viene segnalato a video all’utente finale, che se il programma persiste chiamerà help-desk</t>
   </si>
   <si>
-    <t>L'applicazione nel momento dell'inserimento del codice fiscale automaticamente lo trasforma in maiuscolo</t>
-  </si>
-  <si>
     <t>Problemi nel collegamento riprovare più tardi. Se dovesse persistere chiamare help-desk</t>
   </si>
   <si>
-    <t>335d12040099e4c8d66dc324b72884e4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.82adc0bdbe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-07-03T09:24:50Z</t>
-  </si>
-  <si>
     <t>Errore semantico "[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' ]"</t>
   </si>
   <si>
     <t>L’errore viene segnalato a video all’utente finale, che procederà all'inserimento del dato mancante</t>
   </si>
   <si>
-    <t>2025-07-03T14:11:14Z</t>
-  </si>
-  <si>
-    <t>eefeb8a54536205ba42992f9d728d9f4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.dc6b5deae0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Errore semantico "[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']"</t>
+  </si>
+  <si>
+    <t>2025-07-04T07:09:25Z</t>
+  </si>
+  <si>
+    <t>d89dd6536efda91ff48dfa3befe127ab</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.835e706054^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-04T07:15:19Z</t>
+  </si>
+  <si>
+    <t>9c30adabd5cf85b2f1eadd815d6fe9a9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.25a742262e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-04T08:16:46Z</t>
+  </si>
+  <si>
+    <t>badb68145e9833234f8ce00cd1f5c5f7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.e819c46147^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>[ERROR-50| Il valore dell'elemento effectiveTime/high : '20240528000000+0200' 
+			deve essere maggiore o uguale di quello di effectiveTime/low : '20250704101546+0200'.]</t>
+  </si>
+  <si>
+    <t>2025-07-04T09:10:07Z</t>
+  </si>
+  <si>
+    <t>e5926e0b7982a8fa1141040472569006</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.6cb7788ca3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-04T10:12:34Z</t>
+  </si>
+  <si>
+    <t>5dc03f10f194c05b6fa1f0af58113afc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.37c86dc23a518b65226d17639c8ea6840b681fe52090c4c0caf0b0ba3179e9a4.92c3e19516^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2239,7 +2267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2383,6 +2411,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3835,10 +3866,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F164" sqref="F164"/>
+      <selection pane="bottomRight" activeCell="K186" sqref="K186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4864,7 +4895,7 @@
         <v>64</v>
       </c>
       <c r="O29" s="38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P29" s="38" t="s">
         <v>64</v>
@@ -8656,7 +8687,7 @@
         <v>228</v>
       </c>
       <c r="K131" s="38" t="s">
-        <v>441</v>
+        <v>238</v>
       </c>
       <c r="L131" s="38"/>
       <c r="M131" s="38"/>
@@ -8690,16 +8721,16 @@
         <v>344</v>
       </c>
       <c r="F132" s="37">
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="G132" s="37" t="s">
         <v>445</v>
       </c>
       <c r="H132" s="37" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="I132" s="42" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="J132" s="38" t="s">
         <v>64</v>
@@ -8713,7 +8744,7 @@
         <v>64</v>
       </c>
       <c r="O132" s="38" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="P132" s="38" t="s">
         <v>228</v>
@@ -8725,7 +8756,7 @@
         <v>228</v>
       </c>
       <c r="S132" s="38" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="T132" s="38"/>
       <c r="U132" s="39"/>
@@ -8751,7 +8782,7 @@
         <v>345</v>
       </c>
       <c r="F133" s="37">
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="G133" s="37" t="s">
         <v>448</v>
@@ -8774,7 +8805,7 @@
         <v>64</v>
       </c>
       <c r="O133" s="45" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="P133" s="38" t="s">
         <v>228</v>
@@ -8786,7 +8817,7 @@
         <v>228</v>
       </c>
       <c r="S133" s="45" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="T133" s="38"/>
       <c r="U133" s="39"/>
@@ -8811,12 +8842,18 @@
       <c r="E134" s="43" t="s">
         <v>346</v>
       </c>
-      <c r="F134" s="37"/>
+      <c r="F134" s="37">
+        <v>45842</v>
+      </c>
       <c r="G134" s="37"/>
       <c r="H134" s="37"/>
       <c r="I134" s="42"/>
-      <c r="J134" s="38"/>
-      <c r="K134" s="38"/>
+      <c r="J134" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="K134" s="38" t="s">
+        <v>238</v>
+      </c>
       <c r="L134" s="38"/>
       <c r="M134" s="38"/>
       <c r="N134" s="38"/>
@@ -8848,12 +8885,18 @@
       <c r="E135" s="43" t="s">
         <v>347</v>
       </c>
-      <c r="F135" s="37"/>
+      <c r="F135" s="37">
+        <v>45842</v>
+      </c>
       <c r="G135" s="37"/>
       <c r="H135" s="37"/>
       <c r="I135" s="42"/>
-      <c r="J135" s="38"/>
-      <c r="K135" s="38"/>
+      <c r="J135" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="K135" s="38" t="s">
+        <v>233</v>
+      </c>
       <c r="L135" s="38"/>
       <c r="M135" s="38"/>
       <c r="N135" s="38"/>
@@ -8885,12 +8928,18 @@
       <c r="E136" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="F136" s="37"/>
+      <c r="F136" s="37">
+        <v>45842</v>
+      </c>
       <c r="G136" s="37"/>
       <c r="H136" s="37"/>
       <c r="I136" s="42"/>
-      <c r="J136" s="38"/>
-      <c r="K136" s="38"/>
+      <c r="J136" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="K136" s="38" t="s">
+        <v>238</v>
+      </c>
       <c r="L136" s="38"/>
       <c r="M136" s="38"/>
       <c r="N136" s="38"/>
@@ -8922,12 +8971,18 @@
       <c r="E137" s="43" t="s">
         <v>348</v>
       </c>
-      <c r="F137" s="37"/>
+      <c r="F137" s="37">
+        <v>45842</v>
+      </c>
       <c r="G137" s="37"/>
       <c r="H137" s="37"/>
       <c r="I137" s="42"/>
-      <c r="J137" s="38"/>
-      <c r="K137" s="38"/>
+      <c r="J137" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="K137" s="38" t="s">
+        <v>238</v>
+      </c>
       <c r="L137" s="38"/>
       <c r="M137" s="38"/>
       <c r="N137" s="38"/>
@@ -8959,12 +9014,18 @@
       <c r="E138" s="43" t="s">
         <v>349</v>
       </c>
-      <c r="F138" s="37"/>
+      <c r="F138" s="37">
+        <v>45842</v>
+      </c>
       <c r="G138" s="37"/>
       <c r="H138" s="37"/>
       <c r="I138" s="42"/>
-      <c r="J138" s="38"/>
-      <c r="K138" s="38"/>
+      <c r="J138" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="K138" s="38" t="s">
+        <v>238</v>
+      </c>
       <c r="L138" s="38"/>
       <c r="M138" s="38"/>
       <c r="N138" s="38"/>
@@ -8996,20 +9057,44 @@
       <c r="E139" s="43" t="s">
         <v>350</v>
       </c>
-      <c r="F139" s="37"/>
-      <c r="G139" s="37"/>
-      <c r="H139" s="37"/>
-      <c r="I139" s="42"/>
-      <c r="J139" s="38"/>
+      <c r="F139" s="37">
+        <v>45842</v>
+      </c>
+      <c r="G139" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="H139" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="I139" s="42" t="s">
+        <v>453</v>
+      </c>
+      <c r="J139" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K139" s="38"/>
       <c r="L139" s="38"/>
-      <c r="M139" s="38"/>
-      <c r="N139" s="38"/>
-      <c r="O139" s="38"/>
-      <c r="P139" s="38"/>
-      <c r="Q139" s="38"/>
-      <c r="R139" s="38"/>
-      <c r="S139" s="38"/>
+      <c r="M139" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="N139" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O139" s="38" t="s">
+        <v>454</v>
+      </c>
+      <c r="P139" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q139" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="R139" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="S139" s="38" t="s">
+        <v>443</v>
+      </c>
       <c r="T139" s="38"/>
       <c r="U139" s="39"/>
       <c r="V139" s="40"/>
@@ -9033,12 +9118,18 @@
       <c r="E140" s="43" t="s">
         <v>351</v>
       </c>
-      <c r="F140" s="37"/>
+      <c r="F140" s="37">
+        <v>45842</v>
+      </c>
       <c r="G140" s="37"/>
       <c r="H140" s="37"/>
       <c r="I140" s="42"/>
-      <c r="J140" s="38"/>
-      <c r="K140" s="38"/>
+      <c r="J140" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="K140" s="38" t="s">
+        <v>238</v>
+      </c>
       <c r="L140" s="38"/>
       <c r="M140" s="38"/>
       <c r="N140" s="38"/>
@@ -9070,12 +9161,18 @@
       <c r="E141" s="43" t="s">
         <v>352</v>
       </c>
-      <c r="F141" s="37"/>
+      <c r="F141" s="37">
+        <v>45842</v>
+      </c>
       <c r="G141" s="37"/>
       <c r="H141" s="37"/>
       <c r="I141" s="42"/>
-      <c r="J141" s="38"/>
-      <c r="K141" s="38"/>
+      <c r="J141" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="K141" s="38" t="s">
+        <v>238</v>
+      </c>
       <c r="L141" s="38"/>
       <c r="M141" s="38"/>
       <c r="N141" s="38"/>
@@ -9107,12 +9204,18 @@
       <c r="E142" s="43" t="s">
         <v>353</v>
       </c>
-      <c r="F142" s="37"/>
+      <c r="F142" s="37">
+        <v>45842</v>
+      </c>
       <c r="G142" s="37"/>
       <c r="H142" s="37"/>
       <c r="I142" s="42"/>
-      <c r="J142" s="38"/>
-      <c r="K142" s="38"/>
+      <c r="J142" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="K142" s="38" t="s">
+        <v>238</v>
+      </c>
       <c r="L142" s="38"/>
       <c r="M142" s="38"/>
       <c r="N142" s="38"/>
@@ -9144,12 +9247,18 @@
       <c r="E143" s="43" t="s">
         <v>354</v>
       </c>
-      <c r="F143" s="37"/>
+      <c r="F143" s="37">
+        <v>45842</v>
+      </c>
       <c r="G143" s="37"/>
       <c r="H143" s="37"/>
       <c r="I143" s="42"/>
-      <c r="J143" s="38"/>
-      <c r="K143" s="38"/>
+      <c r="J143" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="K143" s="38" t="s">
+        <v>238</v>
+      </c>
       <c r="L143" s="38"/>
       <c r="M143" s="38"/>
       <c r="N143" s="38"/>
@@ -9181,12 +9290,18 @@
       <c r="E144" s="43" t="s">
         <v>355</v>
       </c>
-      <c r="F144" s="37"/>
+      <c r="F144" s="37">
+        <v>45842</v>
+      </c>
       <c r="G144" s="37"/>
       <c r="H144" s="37"/>
       <c r="I144" s="42"/>
-      <c r="J144" s="38"/>
-      <c r="K144" s="38"/>
+      <c r="J144" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="K144" s="38" t="s">
+        <v>238</v>
+      </c>
       <c r="L144" s="38"/>
       <c r="M144" s="38"/>
       <c r="N144" s="38"/>
@@ -9218,12 +9333,18 @@
       <c r="E145" s="43" t="s">
         <v>356</v>
       </c>
-      <c r="F145" s="37"/>
+      <c r="F145" s="37">
+        <v>45842</v>
+      </c>
       <c r="G145" s="37"/>
       <c r="H145" s="37"/>
       <c r="I145" s="42"/>
-      <c r="J145" s="38"/>
-      <c r="K145" s="38"/>
+      <c r="J145" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="K145" s="38" t="s">
+        <v>238</v>
+      </c>
       <c r="L145" s="38"/>
       <c r="M145" s="38"/>
       <c r="N145" s="38"/>
@@ -9921,11 +10042,21 @@
       <c r="E164" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="F164" s="37"/>
-      <c r="G164" s="37"/>
-      <c r="H164" s="37"/>
-      <c r="I164" s="42"/>
-      <c r="J164" s="38"/>
+      <c r="F164" s="37">
+        <v>45842</v>
+      </c>
+      <c r="G164" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="H164" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="I164" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="J164" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K164" s="38"/>
       <c r="L164" s="38"/>
       <c r="M164" s="38"/>
@@ -9958,11 +10089,21 @@
       <c r="E165" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="F165" s="37"/>
-      <c r="G165" s="37"/>
-      <c r="H165" s="37"/>
-      <c r="I165" s="42"/>
-      <c r="J165" s="38"/>
+      <c r="F165" s="37">
+        <v>45842</v>
+      </c>
+      <c r="G165" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="H165" s="37" t="s">
+        <v>459</v>
+      </c>
+      <c r="I165" s="42" t="s">
+        <v>460</v>
+      </c>
+      <c r="J165" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="K165" s="38"/>
       <c r="L165" s="38"/>
       <c r="M165" s="38"/>
@@ -10735,12 +10876,18 @@
       <c r="E186" s="43" t="s">
         <v>408</v>
       </c>
-      <c r="F186" s="35"/>
+      <c r="F186" s="58">
+        <v>45842</v>
+      </c>
       <c r="G186" s="35"/>
       <c r="H186" s="35"/>
       <c r="I186" s="35"/>
-      <c r="J186" s="38"/>
-      <c r="K186" s="38"/>
+      <c r="J186" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="K186" s="38" t="s">
+        <v>238</v>
+      </c>
       <c r="L186" s="35"/>
       <c r="M186" s="38"/>
       <c r="N186" s="38"/>
@@ -17285,27 +17432,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17563,32 +17689,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17607,6 +17729,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
